--- a/docss/trend/hungary/E_ataxy.xlsx
+++ b/docss/trend/hungary/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\hungary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\hungary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,7 +1734,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>2.1109286695718765E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -1747,13 +1747,13 @@
       <c r="A4" s="9">
         <v>2002</v>
       </c>
-      <c r="B4" s="9">
-        <v>9.1583477333188057E-3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2.1148534491658211E-2</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -1761,27 +1761,27 @@
       <c r="A5" s="9">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>1.8464352935552597E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1.8003836274147034E-2</v>
+      <c r="B5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -1789,13 +1789,13 @@
       <c r="A7" s="9">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -1803,13 +1803,13 @@
       <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>1.7671911045908928E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1.8483752384781837E-2</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
@@ -1817,13 +1817,13 @@
       <c r="A9" s="9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>9.7224516794085503E-3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
@@ -1831,13 +1831,13 @@
       <c r="A10" s="9">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>9.4392541795969009E-3</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1.8453344702720642E-2</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -1845,13 +1845,13 @@
       <c r="A11" s="9">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>2.1017001010477543E-2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -1859,13 +1859,13 @@
       <c r="A12" s="9">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>1.7622532788664103E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2.3801509290933609E-2</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1873,13 +1873,13 @@
       <c r="A13" s="9">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>4.1616958566009998E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2.363116480410099E-2</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
       <c r="A14" s="9">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>4.498307267203927E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>5.4773511365056038E-2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1.1351167224347591E-2</v>
+      <c r="B14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1905,16 +1905,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
